--- a/Ben_5101/EEPROM地址分配.xlsx
+++ b/Ben_5101/EEPROM地址分配.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="EEPROM" sheetId="1" r:id="rId1"/>
     <sheet name="写地址" sheetId="2" r:id="rId2"/>
     <sheet name="读地址" sheetId="3" r:id="rId3"/>
+    <sheet name="指令解析" sheetId="4" r:id="rId4"/>
+    <sheet name="学习过程" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +114,290 @@
   </si>
   <si>
     <t>DF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送2425指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24（25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写过24  学习过25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收26指令，8个字节，后返回27指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26指令接收的8位数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐个异或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2425帧发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再与当前hash异或后返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数减少1，注意借位操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee00的76作为新字节的12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash的倒序的高三字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果应该与39指令收到的一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚步后高4字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash值是倒着存储的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +513,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,6 +904,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -982,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -1577,7 +1904,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
@@ -1595,47 +1922,614 @@
     <col min="10" max="10" width="20.625" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="44"/>
+  </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="3" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="4" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="5" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="7" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="8" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="22" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" s="39" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="44">
+        <v>10</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="44">
+        <v>61</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="46" customFormat="1" ht="27">
+      <c r="B7" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="46" customFormat="1" ht="40.5">
+      <c r="B14" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="47" customFormat="1" ht="27">
+      <c r="B16" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C7:S25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="18" width="5.625" style="49" customWidth="1"/>
+    <col min="19" max="19" width="5.625" style="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:19" s="51" customFormat="1">
+      <c r="C7" s="50">
+        <v>83</v>
+      </c>
+      <c r="D7" s="50">
+        <v>84</v>
+      </c>
+      <c r="E7" s="50">
+        <v>85</v>
+      </c>
+      <c r="F7" s="50">
+        <v>86</v>
+      </c>
+      <c r="G7" s="50">
+        <v>87</v>
+      </c>
+      <c r="H7" s="50">
+        <v>88</v>
+      </c>
+      <c r="I7" s="50">
+        <v>89</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="50">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>91</v>
+      </c>
+      <c r="R7" s="50">
+        <v>92</v>
+      </c>
+      <c r="S7" s="53">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="K8" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="49">
+        <v>47</v>
+      </c>
+      <c r="M8" s="49">
+        <v>80</v>
+      </c>
+      <c r="N8" s="49">
+        <v>22</v>
+      </c>
+      <c r="O8" s="49">
+        <v>71</v>
+      </c>
+      <c r="P8" s="49">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="49">
+        <v>87</v>
+      </c>
+      <c r="R8" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="K9" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="K10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="49">
+        <v>61</v>
+      </c>
+      <c r="M10" s="49">
+        <v>90</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="K11" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="P12" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="J13" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="J14" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="K15" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+    </row>
+    <row r="19" spans="10:18">
+      <c r="K19" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="49">
+        <v>47</v>
+      </c>
+      <c r="N19" s="49">
+        <v>80</v>
+      </c>
+      <c r="O19" s="49">
+        <v>22</v>
+      </c>
+      <c r="P19" s="49">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="49">
+        <v>85</v>
+      </c>
+      <c r="R19" s="49">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="10:18">
+      <c r="K20" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="10:18">
+      <c r="K21" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="49">
+        <v>61</v>
+      </c>
+      <c r="M21" s="49">
+        <v>90</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="10:18">
+      <c r="K22" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+    </row>
+    <row r="23" spans="10:18">
+      <c r="J23" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="10:18">
+      <c r="J24" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="10:18">
+      <c r="K25" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="49">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="49">
+        <v>90</v>
+      </c>
+      <c r="R25" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K22:N22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B8:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>